--- a/data/alertasRefacciones.xlsx
+++ b/data/alertasRefacciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>id_alerta</t>
   </si>
@@ -43,46 +43,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Casco</t>
-  </si>
-  <si>
-    <t>Pieza 1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>2025-11-06 18:43:49</t>
-  </si>
-  <si>
-    <t>2025-11-06 18:43:55</t>
+    <t>2025-11-08 00:53:37</t>
   </si>
   <si>
     <t>nuevo</t>
-  </si>
-  <si>
-    <t>visto</t>
   </si>
 </sst>
 </file>
@@ -440,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,100 +447,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/alertasRefacciones.xlsx
+++ b/data/alertasRefacciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,97 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>enviada 2025-11-12 22:01:33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pantalla</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>enviada 2025-11-12 21:57:10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>enviada 2025-11-12 22:02:10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:16:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
